--- a/P&E/PDF/Inferencial/Clase 13 (Cálculo del error estándar e intervalo de confianza).xlsx
+++ b/P&E/PDF/Inferencial/Clase 13 (Cálculo del error estándar e intervalo de confianza).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CA5DA0-0BB5-40C0-B473-1D21390DE35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E89E55-9C07-4DD5-ADB5-DC0E61B7F6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20220" yWindow="540" windowWidth="8580" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -261,6 +261,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -270,10 +274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,69 +800,90 @@
     <col min="12" max="16" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
       <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="J2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="X2">
+        <v>2.1</v>
+      </c>
+      <c r="Y2">
+        <f>-0.05+3.144*X2</f>
+        <v>6.5524000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="X3">
+        <v>5.5</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y10" si="0">-0.05+3.144*X3</f>
+        <v>17.242000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L4" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>12.526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -880,112 +901,156 @@
       <c r="M5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>2.1</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>6.5524000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X6">
+        <v>2.1</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>6.5524000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>2.1</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>6.5524000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="X8">
+        <v>2.1</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>6.5524000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X9">
+        <v>2.1</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>6.5524000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="X10">
+        <v>2.1</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>6.5524000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="J14" s="10" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="M14" s="12" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="N14" s="9">
         <v>10</v>
       </c>
-      <c r="O14" s="10" t="str">
+      <c r="O14" s="12" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
       <c r="L15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="12"/>
       <c r="N15" s="7">
         <v>5</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1004,32 +1069,32 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="J19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="10" t="s">
         <v>28</v>
       </c>
       <c r="N21" t="s">
@@ -1042,7 +1107,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1071,71 +1136,75 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A11:H12"/>
+    <mergeCell ref="A13:H14"/>
     <mergeCell ref="A19:H20"/>
     <mergeCell ref="J14:K15"/>
     <mergeCell ref="J28:S29"/>
@@ -1143,10 +1212,6 @@
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:P15"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A11:H12"/>
-    <mergeCell ref="A13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
